--- a/MetroSystem/data/edges_border.xlsx
+++ b/MetroSystem/data/edges_border.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\城大\课程\Year 3 Sem A\CS3343\CS3343_Group6\MetroSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F9C701-FFD5-42AE-9EB8-9DDD904BD9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7976823B-2CE9-4AE5-B978-A37D3EB5CF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>HK_station</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>is_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +391,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>68</v>
       </c>
@@ -398,8 +405,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
+      <c r="D2" s="1">
+        <v>180</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>97</v>
       </c>
@@ -409,8 +419,11 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
+      <c r="D3" s="1">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>97</v>
       </c>
@@ -420,8 +433,11 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
+      <c r="D4" s="1">
+        <v>90</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>96</v>
       </c>
@@ -430,6 +446,9 @@
       </c>
       <c r="C5" s="1">
         <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
